--- a/outputs/ML_Results/carown_LR/Magdeburg.xlsx
+++ b/outputs/ML_Results/carown_LR/Magdeburg.xlsx
@@ -7,13 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ10" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ0" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ17" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ13" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ19" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ17" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ0" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="summ2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ9" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,10 +465,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-14.35845000382213</v>
+        <v>-17.49237464737675</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9866215599456825</v>
+        <v>0.9961025167630034</v>
       </c>
     </row>
     <row r="3">
@@ -477,10 +478,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.88471616039413</v>
+        <v>17.82488037657322</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9861311878860749</v>
+        <v>0.9960284304267272</v>
       </c>
     </row>
     <row r="4">
@@ -490,10 +491,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.01088005755938</v>
+        <v>18.75161281503001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9850820067976003</v>
+        <v>0.9958219466309539</v>
       </c>
     </row>
     <row r="5">
@@ -503,257 +504,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.6097515910511</v>
+        <v>15.72333079738496</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9882507158912461</v>
+        <v>0.9964966744217983</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14.7602372386901</v>
+        <v>16.18896351532735</v>
       </c>
       <c r="C6" t="n">
-        <v>0.986247161539788</v>
+        <v>0.9963929271881916</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.97139147038524</v>
+        <v>17.91170697534538</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9879137790987471</v>
+        <v>0.9960090847533692</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.24937199971062</v>
+        <v>-0.5207994106936459</v>
       </c>
       <c r="C8" t="n">
-        <v>0.999164980251501</v>
+        <v>0.00498328290113684</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.6560122630809173</v>
+        <v>0.0003364866071974766</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0007312732131193337</v>
+        <v>0.0004176184226060882</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0003991014174149881</v>
+        <v>-0.01651266922586832</v>
       </c>
       <c r="C10" t="n">
-        <v>9.110358202975134e-05</v>
+        <v>0.03412548558619004</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01571228755180317</v>
+        <v>-0.1250329067919562</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04870142902597766</v>
+        <v>0.4890428993817817</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1588716714362034</v>
+        <v>0.8012398103078283</v>
       </c>
       <c r="C12" t="n">
-        <v>0.387319808216795</v>
+        <v>0.008749398308803114</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7743616696472518</v>
+        <v>0.8613416966262368</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01224971836230304</v>
+        <v>0.02555461823748297</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7053780909496314</v>
+        <v>-0.0003471599047933904</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07198554937792254</v>
+        <v>0.08703685259983698</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0001973976656789353</v>
+        <v>1.077411673830398e-07</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3324815830345982</v>
+        <v>0.4723714995556555</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.432726999568592e-07</v>
+        <v>-0.1969759128276478</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3373992035304159</v>
+        <v>0.4376146253072449</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0733516082961041</v>
+        <v>-0.004016777530475427</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7702168037388545</v>
+        <v>0.991846255095909</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2477322961882133</v>
+        <v>-1.128502817111067</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5234663253143632</v>
+        <v>0.8779623158644725</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.960903044825453</v>
+        <v>0.06244296499710112</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6835406428571744</v>
+        <v>0.07652225612476957</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.05518045020194478</v>
+        <v>0.009911591928487402</v>
       </c>
       <c r="C20" t="n">
-        <v>0.118986594911473</v>
+        <v>0.5050036617052864</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.005178491523138813</v>
+        <v>4.376707103789719</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7230600723520575</v>
+        <v>0.5771600715301966</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.2012145842508573</v>
+        <v>0.248777273467529</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9791239349936898</v>
+        <v>0.9554786768302708</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-2.170482588837417</v>
+        <v>-1.940663626966046</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6176208008252122</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1.019784374495791</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.8212654319711199</v>
+        <v>0.6749839810157026</v>
       </c>
     </row>
   </sheetData>
@@ -767,7 +755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -799,10 +787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-19.20911996231386</v>
+        <v>-15.51835052441645</v>
       </c>
       <c r="C2" t="n">
-        <v>0.997991224253325</v>
+        <v>0.9973051390865679</v>
       </c>
     </row>
     <row r="3">
@@ -812,10 +800,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.38757591211185</v>
+        <v>18.04359064109249</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9979725622873654</v>
+        <v>0.996866616498112</v>
       </c>
     </row>
     <row r="4">
@@ -825,10 +813,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.19718564669112</v>
+        <v>18.78637308398921</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9978878983004565</v>
+        <v>0.9967376283574717</v>
       </c>
     </row>
     <row r="5">
@@ -838,257 +826,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17.12283059552922</v>
+        <v>16.04700471546651</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9982093954982734</v>
+        <v>0.9972133347614407</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.09983530824947</v>
+        <v>16.48891460037986</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9980026524340183</v>
+        <v>0.9971365946015394</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.69524786207282</v>
+        <v>18.06683689770867</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9981495355864292</v>
+        <v>0.9968625796801355</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.32268055353909</v>
+        <v>-0.468205589676431</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9977702047473764</v>
+        <v>0.0178728784119327</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.5370289098580526</v>
+        <v>0.0003894123892714915</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006618938873221346</v>
+        <v>9.745780732511054e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0003856195332226039</v>
+        <v>-0.01805650785440854</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000164728163208705</v>
+        <v>0.01939256642106701</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01820331582367534</v>
+        <v>-0.2109291744111666</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02236191137170749</v>
+        <v>0.2503206254053305</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1182767631385888</v>
+        <v>0.8406454268537845</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5291096823184553</v>
+        <v>0.005574619516843981</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9263105492613222</v>
+        <v>1.004309515064908</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00270715076364801</v>
+        <v>0.008281961973347714</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8562184251129317</v>
+        <v>-0.0002776985193687094</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02603079581420567</v>
+        <v>0.172759311844181</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.000412665477279443</v>
+        <v>8.976485474909453e-09</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04902696073812507</v>
+        <v>0.9513657530366033</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.462708935651183e-07</v>
+        <v>-0.2600617684517795</v>
       </c>
       <c r="C16" t="n">
-        <v>0.332879412353978</v>
+        <v>0.3142333514611058</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.2231963413748859</v>
+        <v>-0.01684273738773154</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3936096276319782</v>
+        <v>0.9653235242407243</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1797998520998528</v>
+        <v>-0.8828123897046822</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6547218324055055</v>
+        <v>0.9062887983381822</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.941036418683097</v>
+        <v>0.02872737335638999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6049849731524093</v>
+        <v>0.4087548985068911</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.07079954489001193</v>
+        <v>0.002784463636143045</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0483617651724987</v>
+        <v>0.8499099918619644</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.0007667495426916732</v>
+        <v>5.169733331946808</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9600488995591411</v>
+        <v>0.5031445672934152</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.141549262716222</v>
+        <v>0.6271615311676961</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7013070887871604</v>
+        <v>0.885026219175014</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.4546186796885274</v>
+        <v>-2.237331159394627</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9218097021834089</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-0.2971661910737545</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.9507758955422299</v>
+        <v>0.6221470399563167</v>
       </c>
     </row>
   </sheetData>
@@ -1102,7 +1077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,10 +1109,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-14.92827856019904</v>
+        <v>-17.66262888359355</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9944077955825533</v>
+        <v>0.9969351542496225</v>
       </c>
     </row>
     <row r="3">
@@ -1147,10 +1122,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.80442999065106</v>
+        <v>18.16330215918316</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9937049886570604</v>
+        <v>0.9968482765308857</v>
       </c>
     </row>
     <row r="4">
@@ -1160,10 +1135,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.30467878871148</v>
+        <v>19.11607489304614</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9935175975347968</v>
+        <v>0.9966829509221211</v>
       </c>
     </row>
     <row r="5">
@@ -1173,257 +1148,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.82262635128877</v>
+        <v>16.03027282540733</v>
       </c>
       <c r="C5" t="n">
-        <v>0.994447368009687</v>
+        <v>0.9972184013869119</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.0002281621429</v>
+        <v>16.54248780103299</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9936316435879636</v>
+        <v>0.9971295214010087</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.18216178487005</v>
+        <v>18.21138716824615</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9943126864365658</v>
+        <v>0.9968399328111046</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29.74645148233663</v>
+        <v>-0.5523065839287293</v>
       </c>
       <c r="C8" t="n">
-        <v>0.993260126548244</v>
+        <v>0.004195668857314344</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.3650526295579312</v>
+        <v>0.0003451453387503962</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06721143582432842</v>
+        <v>0.0005377439792426792</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0003727254314739304</v>
+        <v>-0.01581440300223877</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001399923108445214</v>
+        <v>0.0427199682492223</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0224984321608975</v>
+        <v>-0.1261223659344266</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004719867178515812</v>
+        <v>0.4954695401212319</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1965298219952969</v>
+        <v>0.969952152601713</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2818603647582737</v>
+        <v>0.001289802512859197</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8792092521883303</v>
+        <v>0.8674395482778209</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003775197968088383</v>
+        <v>0.02205284230066775</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.023841663021257</v>
+        <v>-0.000306688402385918</v>
       </c>
       <c r="C14" t="n">
-        <v>0.008181335032494288</v>
+        <v>0.1434637513406948</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0002945194167684467</v>
+        <v>9.524210735289296e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1488039743123546</v>
+        <v>0.522458665034937</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.794432848192683e-08</v>
+        <v>-0.1912938955444979</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9032776610643005</v>
+        <v>0.4495752458681964</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1843942563221008</v>
+        <v>0.1772335521138716</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4645404168232549</v>
+        <v>0.6515836420131984</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.07681477572905482</v>
+        <v>5.179419597673303</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8434035983785254</v>
+        <v>0.4898249413263994</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.774847289762838</v>
+        <v>0.04355429880776716</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8090615108010821</v>
+        <v>0.2212375637270571</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02777257305891013</v>
+        <v>0.001005823537447946</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4320915122209745</v>
+        <v>0.9456651196773335</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01006676123528133</v>
+        <v>2.995899891441537</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4913015967628116</v>
+        <v>0.7043957324243426</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.51624604538656</v>
+        <v>-0.6724058288817687</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5615710089514037</v>
+        <v>0.8795333965449884</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.325496304002226</v>
+        <v>-0.1089336435545556</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7613776300491508</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-2.0327395677074</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.6553510871588358</v>
+        <v>0.9811711272992505</v>
       </c>
     </row>
   </sheetData>
@@ -1437,7 +1399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1469,10 +1431,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-14.23077213307977</v>
+        <v>-16.56885397033806</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9942866497403537</v>
+        <v>0.997124469589928</v>
       </c>
     </row>
     <row r="3">
@@ -1482,10 +1444,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.78460981162969</v>
+        <v>18.31082191638636</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9932613541169164</v>
+        <v>0.9968221513823005</v>
       </c>
     </row>
     <row r="4">
@@ -1495,10 +1457,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.58481351830925</v>
+        <v>19.07559480768115</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9929400986225245</v>
+        <v>0.9966894255827902</v>
       </c>
     </row>
     <row r="5">
@@ -1508,257 +1470,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.60337214687855</v>
+        <v>16.2419526093216</v>
       </c>
       <c r="C5" t="n">
-        <v>0.99413705539293</v>
+        <v>0.9971812026816409</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.07202930186498</v>
+        <v>16.58159374025687</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9931459647407582</v>
+        <v>0.997122258081402</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.08258705242554</v>
+        <v>18.01308621877696</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9939446643861714</v>
+        <v>0.996873823251387</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38.71926594200671</v>
+        <v>-0.5194992929072283</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9998833713175569</v>
+        <v>0.007220137052808938</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.4955750342602454</v>
+        <v>0.0003678196139477162</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01858157705931301</v>
+        <v>0.0002588235306731543</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0003156235281170796</v>
+        <v>-0.01908448307647327</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001227657212120995</v>
+        <v>0.01587845122294</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01912918769215353</v>
+        <v>-0.1562584816709722</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01603814249091118</v>
+        <v>0.3952008064023799</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1821581632945347</v>
+        <v>1.05959188521129</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3219167173901254</v>
+        <v>0.0005075907689372026</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9896723797796143</v>
+        <v>1.024964113943987</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001331132546009707</v>
+        <v>0.007669552784451345</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.972807738450896</v>
+        <v>-0.0002544772622453354</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01168458095268427</v>
+        <v>0.2220128790443934</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0002971165747363076</v>
+        <v>5.751983043929519e-09</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1495170290014979</v>
+        <v>0.9684639154171732</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2.369745445248813e-08</v>
+        <v>-0.2040025531958419</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8749544606816417</v>
+        <v>0.4245590677220712</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.2492988963636733</v>
+        <v>-0.03122281929012949</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3426199605053475</v>
+        <v>0.9362951202475908</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0880794394732258</v>
+        <v>1.412895934569186</v>
       </c>
       <c r="C18" t="n">
-        <v>0.821877750806476</v>
+        <v>0.8487481762998037</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.377709464644076</v>
+        <v>0.02933081748027915</v>
       </c>
       <c r="C19" t="n">
-        <v>0.855611422850975</v>
+        <v>0.3991829097493442</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02706061496544918</v>
+        <v>0.007187505362661901</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4495504541663092</v>
+        <v>0.6283427982004021</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.009764799997213155</v>
+        <v>2.481142561044861</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5066869763503654</v>
+        <v>0.7541176005764498</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.569652390605336</v>
+        <v>-1.214977387602054</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5578337571942593</v>
+        <v>0.7857728897372366</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.06330262794328113</v>
+        <v>-0.5509328903235658</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9883673835241573</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-2.040188839428751</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.6543312770421046</v>
+        <v>0.9056999435722206</v>
       </c>
     </row>
   </sheetData>
@@ -1772,7 +1721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1804,10 +1753,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-14.59915446663047</v>
+        <v>-15.23841738766735</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9913717833719541</v>
+        <v>0.9973545705104938</v>
       </c>
     </row>
     <row r="3">
@@ -1817,10 +1766,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.94763260461226</v>
+        <v>18.44951073211951</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9905748374406745</v>
+        <v>0.9967971183432249</v>
       </c>
     </row>
     <row r="4">
@@ -1830,10 +1779,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.86059131532685</v>
+        <v>19.29968676551633</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9900353003392233</v>
+        <v>0.9966495265030932</v>
       </c>
     </row>
     <row r="5">
@@ -1843,257 +1792,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13.76083158418435</v>
+        <v>16.11523212929111</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9918672038969979</v>
+        <v>0.9972023532248148</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.82995124785789</v>
+        <v>16.56050768469908</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9906443854162432</v>
+        <v>0.9971250525440014</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.28733053384135</v>
+        <v>18.33862057633862</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9915560488746369</v>
+        <v>0.9968163690712626</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.69978721453209</v>
+        <v>-0.5968894781492099</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9986073105077207</v>
+        <v>0.004759126313869502</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.487932789671467</v>
+        <v>0.0003160398028654458</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01062786357607757</v>
+        <v>0.001155960896411034</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0002957282964846441</v>
+        <v>-0.01902526834178749</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002218692847596527</v>
+        <v>0.01802230097916316</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01965513588022323</v>
+        <v>-0.1475052376685558</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01200367160703981</v>
+        <v>0.4235519704736941</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1911956864344058</v>
+        <v>0.9856244980339749</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2951743490814461</v>
+        <v>0.00143564753830049</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.067971312069403</v>
+        <v>0.934280394887481</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0004535260992233845</v>
+        <v>0.01868541171186711</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.132027209613212</v>
+        <v>-0.0002869784376477235</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003210917172169057</v>
+        <v>0.1654638791852394</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0002488811646914597</v>
+        <v>-5.494421250974823e-10</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2205171889845365</v>
+        <v>0.9970699240266255</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.325732772666001e-08</v>
+        <v>-0.2480477520844884</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8737037386668993</v>
+        <v>0.3331099615293132</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1999750788527946</v>
+        <v>-0.1097190359328545</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4406016421004878</v>
+        <v>0.7789135025276854</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01441231366145393</v>
+        <v>-2.614576990144448</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9705542802399529</v>
+        <v>0.7238944035732953</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4797995958012155</v>
+        <v>0.03379600616712061</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9483053269967409</v>
+        <v>0.3405272669248472</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.03994566032280515</v>
+        <v>0.005951627674896283</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2482491149143997</v>
+        <v>0.6852699541401448</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.009029397855014583</v>
+        <v>6.856701576715877</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5469279754877675</v>
+        <v>0.3794958152534176</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.659185788536624</v>
+        <v>1.254022719634912</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6380934171134469</v>
+        <v>0.7751728626308549</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.08140319544176852</v>
+        <v>-3.500572639952563</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9851403249571095</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-1.661690895166652</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.716427565362306</v>
+        <v>0.4447810050148625</v>
       </c>
     </row>
   </sheetData>
@@ -2107,7 +2043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2139,10 +2075,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-14.81175027714197</v>
+        <v>-14.14208010003364</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9924610822606851</v>
+        <v>0.997543288796821</v>
       </c>
     </row>
     <row r="3">
@@ -2152,10 +2088,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.78598945226624</v>
+        <v>18.09306827669193</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9919652151349955</v>
+        <v>0.9968569398411148</v>
       </c>
     </row>
     <row r="4">
@@ -2165,10 +2101,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.73964563215148</v>
+        <v>19.08455710454611</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9914798396192277</v>
+        <v>0.9966847030966314</v>
       </c>
     </row>
     <row r="5">
@@ -2178,257 +2114,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13.63979627044525</v>
+        <v>16.04074839213003</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9930575591936042</v>
+        <v>0.9972134596365573</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.71997833114031</v>
+        <v>16.56007467859212</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9919988128600578</v>
+        <v>0.9971232445508281</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.15036608323777</v>
+        <v>18.17528420304119</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9927976941416849</v>
+        <v>0.9968426576924835</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.79999163378267</v>
+        <v>-0.4375288355247033</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9993159162581312</v>
+        <v>0.03963942218182009</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.5860141644044297</v>
+        <v>0.0004202635609304073</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00624805671988701</v>
+        <v>6.317599816316764e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0003726024228705945</v>
+        <v>-0.02219871970787233</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001338485563707521</v>
+        <v>0.005335538347488063</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01545723870988498</v>
+        <v>-0.109707356426302</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04655184421529273</v>
+        <v>0.5531344949373997</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1782079985613283</v>
+        <v>0.9800283174839328</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3284780761791405</v>
+        <v>0.001600757131137975</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.026772972490041</v>
+        <v>1.121269294773751</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0006863570917332527</v>
+        <v>0.004277326404708791</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.040257173951096</v>
+        <v>-0.0003490855459232983</v>
       </c>
       <c r="C14" t="n">
-        <v>0.006451696142377118</v>
+        <v>0.0852162734672947</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0002388999941438717</v>
+        <v>-6.947527084937284e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2431372001526434</v>
+        <v>0.6594167298783371</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.047466472931434e-08</v>
+        <v>-0.3742249157815378</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5443264948598022</v>
+        <v>0.1756763699219961</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1592638962119563</v>
+        <v>-0.1821811226897376</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5249929054410192</v>
+        <v>0.6495434636822974</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1380113694677703</v>
+        <v>-4.187905577590018</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7212660958278554</v>
+        <v>0.5936536476913904</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.491745410309117</v>
+        <v>0.01396683146095513</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8396644411120029</v>
+        <v>0.7004764552574416</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.04568363587155228</v>
+        <v>0.008542263358080244</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1942791297665298</v>
+        <v>0.5677085727549892</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.001055282714180437</v>
+        <v>7.945073683841726</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9420155221631409</v>
+        <v>0.3119324910944342</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.694586947466687</v>
+        <v>1.552258041053323</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8250584042544271</v>
+        <v>0.7224921814256567</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.84143808677447</v>
+        <v>-3.882209783662996</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6698789901239497</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.01347257582804236</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.9976128247854671</v>
+        <v>0.4052062888793474</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +2365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2474,10 +2397,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-9.485844119752624</v>
+        <v>-17.58588759110744</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9675529731548236</v>
+        <v>0.9969492888798097</v>
       </c>
     </row>
     <row r="3">
@@ -2487,10 +2410,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.0923415625371</v>
+        <v>18.41800440936983</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9586414845478541</v>
+        <v>0.9968049375923728</v>
       </c>
     </row>
     <row r="4">
@@ -2500,10 +2423,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.96506909517212</v>
+        <v>19.23140299762627</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9556596188519206</v>
+        <v>0.9966638341336855</v>
       </c>
     </row>
     <row r="5">
@@ -2513,257 +2436,566 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.12269524973701</v>
+        <v>16.08090496587117</v>
       </c>
       <c r="C5" t="n">
-        <v>0.96537348231009</v>
+        <v>0.9972103640328194</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.9985718393629</v>
+        <v>16.49880516343119</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9589619958198502</v>
+        <v>0.9971378690769932</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.51132043872436</v>
+        <v>18.21442276488261</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9640450009267764</v>
+        <v>0.9968402537392812</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39.62909755740166</v>
+        <v>-0.6036563099175701</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9999917042586492</v>
+        <v>0.001798590293084692</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.5454465991116978</v>
+        <v>0.0003400952498123117</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003744132664415654</v>
+        <v>0.0007212620558648027</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0003598323011728104</v>
+        <v>-0.01729745849372905</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002994474279225627</v>
+        <v>0.03052560771470325</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01913045405120056</v>
+        <v>-0.235958744922774</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01512459032240611</v>
+        <v>0.2056285686073331</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1979779006258332</v>
+        <v>1.032519282567061</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2802852214585044</v>
+        <v>0.0008064232348138526</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.038753503717695</v>
+        <v>1.011190734960453</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0008826066521588569</v>
+        <v>0.009511969981895791</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.101011615961928</v>
+        <v>-0.0003582882879062629</v>
       </c>
       <c r="C14" t="n">
-        <v>0.005024601470099307</v>
+        <v>0.08864251268984924</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0003542302794993091</v>
+        <v>7.32125186307272e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09179854345060719</v>
+        <v>0.6316621168942582</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4.172344570784098e-08</v>
+        <v>-0.2105070299865066</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7749746619087505</v>
+        <v>0.4288687457931395</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.4013106660942506</v>
+        <v>-0.01217569607135187</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1272820333189466</v>
+        <v>0.976199014599839</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.2244356384095794</v>
+        <v>-0.3175546293943738</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5723877348608953</v>
+        <v>0.9662102437846956</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.0815319128162</v>
+        <v>0.06329693092958721</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8862176830994184</v>
+        <v>0.0771492987631576</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02762646125600936</v>
+        <v>0.009121470058173485</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4233324775652942</v>
+        <v>0.5612590088477077</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01585146306478342</v>
+        <v>4.860287412473141</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3029853468042977</v>
+        <v>0.5565714838684497</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.078477525284759</v>
+        <v>1.02229682479006</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2599170417674415</v>
+        <v>0.827216130850955</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>LU_Urban</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-2.247997474408195</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6439163768913699</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>coefficient</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-17.58296816377954</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9969497318726802</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HHType_simp[T.MultiAdult]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18.43637994643299</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9968016834113999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HHType_simp[T.MultiAdult_Kids]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>19.20110773326211</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9966690203116257</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HHType_simp[T.Single_Female]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>16.37389051601846</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9971594794972052</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HHType_simp[T.Single_Male]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>16.80480809386572</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9970847248231871</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HHType_simp[T.Single_Parent]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18.15905754382795</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9968497926670734</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HHSize</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.443062857663666</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.03456208839695292</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>IncomeDetailed_Numeric</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0003264584695579784</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0009207445334723695</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>maxAgeHH</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.02028465050151514</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01065957223884458</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>UniversityEducation</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.1996011928032508</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2775254385765263</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>InEmployment</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9458985169646225</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.002570793695654447</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AllRetired</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.06474099537618</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.006036873884041694</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>UrbPopDensity</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.0003134304064567499</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1272163741520661</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>UrbBuildDensity</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7.910027144596754e-08</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5886560741441116</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>DistSubcenter</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.1066879541245566</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.6687730254546163</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DistCenter</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.06694613109356823</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8619119621810907</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>bike_lane_share</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1.85331528674608</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8018997073251838</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>IntersecDensity</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.04538846909814803</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1968560632228703</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>StreetLength</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.003348777112423134</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8174721214553478</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>LU_UrbFab</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.366764412747428</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8590359141621099</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>LU_Comm</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>-1.52960452930282</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7224648684868349</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>LU_Urban</t>
+        </is>
+      </c>
       <c r="B23" t="n">
-        <v>3.002331006839771</v>
+        <v>0.3339323371790238</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5098238611168648</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-4.605343211454571</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.3317337409704774</v>
+        <v>0.9405066697114386</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR/Magdeburg.xlsx
+++ b/outputs/ML_Results/carown_LR/Magdeburg.xlsx
@@ -7,14 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ19" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ17" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ0" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ6" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ9" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ10" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ20" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ6" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ7" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ0" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ15" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-17.49237464737675</v>
+        <v>-15.26723219527936</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9961025167630034</v>
+        <v>0.9965912018475651</v>
       </c>
     </row>
     <row r="3">
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.82488037657322</v>
+        <v>17.41621926065625</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9960284304267272</v>
+        <v>0.9961113887875481</v>
       </c>
     </row>
     <row r="4">
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.75161281503001</v>
+        <v>18.37687954809767</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9958219466309539</v>
+        <v>0.9958968989841855</v>
       </c>
     </row>
     <row r="5">
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.72333079738496</v>
+        <v>15.24561440013991</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9964966744217983</v>
+        <v>0.9965960280490023</v>
       </c>
     </row>
     <row r="6">
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.18896351532735</v>
+        <v>15.79586256087131</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9963929271881916</v>
+        <v>0.9964731719095068</v>
       </c>
     </row>
     <row r="7">
@@ -530,10 +530,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.91170697534538</v>
+        <v>17.33410459208892</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9960090847533692</v>
+        <v>0.9961297228525715</v>
       </c>
     </row>
     <row r="8">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.5207994106936459</v>
+        <v>-0.7518881758754716</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00498328290113684</v>
+        <v>0.0006143749914761181</v>
       </c>
     </row>
     <row r="9">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003364866071974766</v>
+        <v>0.0007780717776574116</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0004176184226060882</v>
+        <v>8.470820562913824e-10</v>
       </c>
     </row>
     <row r="10">
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01651266922586832</v>
+        <v>-0.01778928408649976</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03412548558619004</v>
+        <v>0.03697373732563731</v>
       </c>
     </row>
     <row r="11">
@@ -582,10 +582,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1250329067919562</v>
+        <v>-0.1664269638698257</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4890428993817817</v>
+        <v>0.387898768944247</v>
       </c>
     </row>
     <row r="12">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8012398103078283</v>
+        <v>0.5458890200382273</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008749398308803114</v>
+        <v>0.101862027807065</v>
       </c>
     </row>
     <row r="13">
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8613416966262368</v>
+        <v>0.4614067542231501</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02555461823748297</v>
+        <v>0.2709033425355889</v>
       </c>
     </row>
     <row r="14">
@@ -621,10 +621,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0003471599047933904</v>
+        <v>-0.000194110454389053</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08703685259983698</v>
+        <v>0.2546744050684193</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.077411673830398e-07</v>
+        <v>7.890290117275236e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4723714995556555</v>
+        <v>0.4678592098242131</v>
       </c>
     </row>
     <row r="16">
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1969759128276478</v>
+        <v>-0.2065662636191971</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4376146253072449</v>
+        <v>0.3201795465308732</v>
       </c>
     </row>
     <row r="17">
@@ -660,10 +660,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.004016777530475427</v>
+        <v>0.1754910797131016</v>
       </c>
       <c r="C17" t="n">
-        <v>0.991846255095909</v>
+        <v>0.3579232839839572</v>
       </c>
     </row>
     <row r="18">
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.128502817111067</v>
+        <v>4.111375883090256</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8779623158644725</v>
+        <v>0.481010078969924</v>
       </c>
     </row>
     <row r="19">
@@ -686,23 +686,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.06244296499710112</v>
+        <v>0.01941378044685324</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07652225612476957</v>
+        <v>0.5489027003460759</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.009911591928487402</v>
+        <v>-0.003956016766260754</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5050036617052864</v>
+        <v>0.689083635676939</v>
       </c>
     </row>
     <row r="21">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.376707103789719</v>
+        <v>1.761183168675997</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5771600715301966</v>
+        <v>0.4368070496103575</v>
       </c>
     </row>
     <row r="22">
@@ -725,23 +725,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.248777273467529</v>
+        <v>-1.549120868371778</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9554786768302708</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-1.940663626966046</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.6749839810157026</v>
+        <v>0.2211827644877536</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -787,10 +774,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-15.51835052441645</v>
+        <v>-15.63786837448202</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9973051390865679</v>
+        <v>0.9972823835222513</v>
       </c>
     </row>
     <row r="3">
@@ -800,10 +787,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.04359064109249</v>
+        <v>17.75105823500857</v>
       </c>
       <c r="C3" t="n">
-        <v>0.996866616498112</v>
+        <v>0.9969151456813784</v>
       </c>
     </row>
     <row r="4">
@@ -813,10 +800,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.78637308398921</v>
+        <v>18.48496979943958</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9967376283574717</v>
+        <v>0.9967876041094957</v>
       </c>
     </row>
     <row r="5">
@@ -826,10 +813,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.04700471546651</v>
+        <v>15.51348734627735</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9972133347614407</v>
+        <v>0.9973039986728883</v>
       </c>
     </row>
     <row r="6">
@@ -839,10 +826,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.48891460037986</v>
+        <v>15.98626069744346</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9971365946015394</v>
+        <v>0.9972218383894851</v>
       </c>
     </row>
     <row r="7">
@@ -852,10 +839,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.06683689770867</v>
+        <v>17.98749834588793</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9968625796801355</v>
+        <v>0.996874056343492</v>
       </c>
     </row>
     <row r="8">
@@ -865,10 +852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.468205589676431</v>
+        <v>-0.7841067914093985</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0178728784119327</v>
+        <v>0.0002484879254333177</v>
       </c>
     </row>
     <row r="9">
@@ -878,10 +865,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003894123892714915</v>
+        <v>0.0008347575847310084</v>
       </c>
       <c r="C9" t="n">
-        <v>9.745780732511054e-05</v>
+        <v>2.769776934326062e-10</v>
       </c>
     </row>
     <row r="10">
@@ -891,10 +878,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01805650785440854</v>
+        <v>-0.02173239825129824</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01939256642106701</v>
+        <v>0.01194844762496144</v>
       </c>
     </row>
     <row r="11">
@@ -904,10 +891,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2109291744111666</v>
+        <v>-0.3003981524188289</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2503206254053305</v>
+        <v>0.1238338102783548</v>
       </c>
     </row>
     <row r="12">
@@ -917,10 +904,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8406454268537845</v>
+        <v>0.8462094165172688</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005574619516843981</v>
+        <v>0.01227153236222886</v>
       </c>
     </row>
     <row r="13">
@@ -930,10 +917,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.004309515064908</v>
+        <v>0.6904253863377134</v>
       </c>
       <c r="C13" t="n">
-        <v>0.008281961973347714</v>
+        <v>0.1054956429588846</v>
       </c>
     </row>
     <row r="14">
@@ -943,10 +930,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0002776985193687094</v>
+        <v>-0.0003367544157699381</v>
       </c>
       <c r="C14" t="n">
-        <v>0.172759311844181</v>
+        <v>0.05247778100009642</v>
       </c>
     </row>
     <row r="15">
@@ -956,10 +943,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.976485474909453e-09</v>
+        <v>1.289987172703742e-07</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9513657530366033</v>
+        <v>0.2410574653263025</v>
       </c>
     </row>
     <row r="16">
@@ -969,10 +956,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2600617684517795</v>
+        <v>-0.2003296060946303</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3142333514611058</v>
+        <v>0.3524663425880595</v>
       </c>
     </row>
     <row r="17">
@@ -982,10 +969,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01684273738773154</v>
+        <v>0.1985177260141182</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9653235242407243</v>
+        <v>0.3051812781760713</v>
       </c>
     </row>
     <row r="18">
@@ -995,10 +982,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.8828123897046822</v>
+        <v>4.370686028666547</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9062887983381822</v>
+        <v>0.4598111855776899</v>
       </c>
     </row>
     <row r="19">
@@ -1008,23 +995,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02872737335638999</v>
+        <v>0.03508809370003004</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4087548985068911</v>
+        <v>0.2747085936108362</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.002784463636143045</v>
+        <v>-0.008608462095573923</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8499099918619644</v>
+        <v>0.3998191059351671</v>
       </c>
     </row>
     <row r="21">
@@ -1034,10 +1021,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.169733331946808</v>
+        <v>3.146294953154268</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5031445672934152</v>
+        <v>0.1657237760221699</v>
       </c>
     </row>
     <row r="22">
@@ -1047,23 +1034,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6271615311676961</v>
+        <v>-1.38144486493823</v>
       </c>
       <c r="C22" t="n">
-        <v>0.885026219175014</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-2.237331159394627</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.6221470399563167</v>
+        <v>0.2785038476834762</v>
       </c>
     </row>
   </sheetData>
@@ -1077,7 +1051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1109,10 +1083,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-17.66262888359355</v>
+        <v>-15.54840109162741</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9969351542496225</v>
+        <v>0.9972980424542419</v>
       </c>
     </row>
     <row r="3">
@@ -1122,10 +1096,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.16330215918316</v>
+        <v>17.69357891584907</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9968482765308857</v>
+        <v>0.9969252609381664</v>
       </c>
     </row>
     <row r="4">
@@ -1135,10 +1109,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.11607489304614</v>
+        <v>18.68601105754885</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9966829509221211</v>
+        <v>0.9967527998950232</v>
       </c>
     </row>
     <row r="5">
@@ -1148,10 +1122,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.03027282540733</v>
+        <v>15.48047996783485</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9972184013869119</v>
+        <v>0.9973098453247009</v>
       </c>
     </row>
     <row r="6">
@@ -1161,10 +1135,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.54248780103299</v>
+        <v>15.87890538476112</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9971295214010087</v>
+        <v>0.9972406083377681</v>
       </c>
     </row>
     <row r="7">
@@ -1174,10 +1148,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.21138716824615</v>
+        <v>17.93109881144549</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9968399328111046</v>
+        <v>0.9968839856447957</v>
       </c>
     </row>
     <row r="8">
@@ -1187,10 +1161,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.5523065839287293</v>
+        <v>-0.7670058189304507</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004195668857314344</v>
+        <v>0.0002454359430828041</v>
       </c>
     </row>
     <row r="9">
@@ -1200,10 +1174,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003451453387503962</v>
+        <v>0.0007523660013208872</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0005377439792426792</v>
+        <v>2.73385581829264e-09</v>
       </c>
     </row>
     <row r="10">
@@ -1213,10 +1187,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01581440300223877</v>
+        <v>-0.01381027080980717</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0427199682492223</v>
+        <v>0.09276440822551309</v>
       </c>
     </row>
     <row r="11">
@@ -1226,10 +1200,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1261223659344266</v>
+        <v>-0.09134179038304771</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4954695401212319</v>
+        <v>0.6335248121755797</v>
       </c>
     </row>
     <row r="12">
@@ -1239,10 +1213,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.969952152601713</v>
+        <v>0.7827651775119437</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001289802512859197</v>
+        <v>0.01570328360776052</v>
       </c>
     </row>
     <row r="13">
@@ -1252,10 +1226,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8674395482778209</v>
+        <v>0.5772327164540261</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02205284230066775</v>
+        <v>0.1536754461327023</v>
       </c>
     </row>
     <row r="14">
@@ -1265,10 +1239,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.000306688402385918</v>
+        <v>-0.0004010419762901375</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1434637513406948</v>
+        <v>0.02167987595981861</v>
       </c>
     </row>
     <row r="15">
@@ -1278,10 +1252,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.524210735289296e-08</v>
+        <v>6.224847186263203e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.522458665034937</v>
+        <v>0.5609172522694896</v>
       </c>
     </row>
     <row r="16">
@@ -1291,10 +1265,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1912938955444979</v>
+        <v>-0.2295937237685475</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4495752458681964</v>
+        <v>0.288863040922511</v>
       </c>
     </row>
     <row r="17">
@@ -1304,10 +1278,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1772335521138716</v>
+        <v>0.1126087934568544</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6515836420131984</v>
+        <v>0.5547576382490182</v>
       </c>
     </row>
     <row r="18">
@@ -1317,10 +1291,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.179419597673303</v>
+        <v>3.174368017105663</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4898249413263994</v>
+        <v>0.5889420096259952</v>
       </c>
     </row>
     <row r="19">
@@ -1330,23 +1304,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.04355429880776716</v>
+        <v>0.02569297298062854</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2212375637270571</v>
+        <v>0.4182615659026843</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.001005823537447946</v>
+        <v>-0.004475219394913727</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9456651196773335</v>
+        <v>0.6592508276344539</v>
       </c>
     </row>
     <row r="21">
@@ -1356,10 +1330,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.995899891441537</v>
+        <v>4.155019749326319</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7043957324243426</v>
+        <v>0.07405812015460211</v>
       </c>
     </row>
     <row r="22">
@@ -1369,23 +1343,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.6724058288817687</v>
+        <v>-1.273537090243837</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8795333965449884</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.1089336435545556</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.9811711272992505</v>
+        <v>0.3098207737904248</v>
       </c>
     </row>
   </sheetData>
@@ -1399,7 +1360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1431,10 +1392,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-16.56885397033806</v>
+        <v>-15.2614818455939</v>
       </c>
       <c r="C2" t="n">
-        <v>0.997124469589928</v>
+        <v>0.9973475420145005</v>
       </c>
     </row>
     <row r="3">
@@ -1444,10 +1405,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.31082191638636</v>
+        <v>17.64241882494876</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9968221513823005</v>
+        <v>0.996933734841852</v>
       </c>
     </row>
     <row r="4">
@@ -1457,10 +1418,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.07559480768115</v>
+        <v>18.75792964518377</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9966894255827902</v>
+        <v>0.9967398593231779</v>
       </c>
     </row>
     <row r="5">
@@ -1470,10 +1431,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.2419526093216</v>
+        <v>15.51553365977735</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9971812026816409</v>
+        <v>0.997303387520691</v>
       </c>
     </row>
     <row r="6">
@@ -1483,10 +1444,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.58159374025687</v>
+        <v>16.0008555401533</v>
       </c>
       <c r="C6" t="n">
-        <v>0.997122258081402</v>
+        <v>0.9972190385157902</v>
       </c>
     </row>
     <row r="7">
@@ -1496,10 +1457,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.01308621877696</v>
+        <v>17.54171922156571</v>
       </c>
       <c r="C7" t="n">
-        <v>0.996873823251387</v>
+        <v>0.9969512364427703</v>
       </c>
     </row>
     <row r="8">
@@ -1509,10 +1470,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.5194992929072283</v>
+        <v>-0.7565222211147545</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007220137052808938</v>
+        <v>0.0003097564011032166</v>
       </c>
     </row>
     <row r="9">
@@ -1522,10 +1483,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003678196139477162</v>
+        <v>0.0006962112965027341</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002588235306731543</v>
+        <v>1.500895606820415e-08</v>
       </c>
     </row>
     <row r="10">
@@ -1535,10 +1496,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01908448307647327</v>
+        <v>-0.0111225488509938</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01587845122294</v>
+        <v>0.1872920798199446</v>
       </c>
     </row>
     <row r="11">
@@ -1548,10 +1509,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1562584816709722</v>
+        <v>-0.06783314435356677</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3952008064023799</v>
+        <v>0.7244465146302708</v>
       </c>
     </row>
     <row r="12">
@@ -1561,10 +1522,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.05959188521129</v>
+        <v>0.7693312200949159</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005075907689372026</v>
+        <v>0.0206804526607626</v>
       </c>
     </row>
     <row r="13">
@@ -1574,10 +1535,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.024964113943987</v>
+        <v>0.5139457791772183</v>
       </c>
       <c r="C13" t="n">
-        <v>0.007669552784451345</v>
+        <v>0.2202455892454847</v>
       </c>
     </row>
     <row r="14">
@@ -1587,10 +1548,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0002544772622453354</v>
+        <v>-0.0003136668822615408</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2220128790443934</v>
+        <v>0.06528381097404917</v>
       </c>
     </row>
     <row r="15">
@@ -1600,10 +1561,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.751983043929519e-09</v>
+        <v>5.467724329390156e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9684639154171732</v>
+        <v>0.6183754486688116</v>
       </c>
     </row>
     <row r="16">
@@ -1613,10 +1574,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2040025531958419</v>
+        <v>-0.3359833019394995</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4245590677220712</v>
+        <v>0.1219167544327967</v>
       </c>
     </row>
     <row r="17">
@@ -1626,10 +1587,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.03122281929012949</v>
+        <v>0.1083260459700001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9362951202475908</v>
+        <v>0.5793558673357467</v>
       </c>
     </row>
     <row r="18">
@@ -1639,10 +1600,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.412895934569186</v>
+        <v>3.471517276147521</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8487481762998037</v>
+        <v>0.5821842088984535</v>
       </c>
     </row>
     <row r="19">
@@ -1652,23 +1613,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02933081748027915</v>
+        <v>0.02424095170068164</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3991829097493442</v>
+        <v>0.4500608843485766</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.007187505362661901</v>
+        <v>-0.00424495035975532</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6283427982004021</v>
+        <v>0.6802795304317557</v>
       </c>
     </row>
     <row r="21">
@@ -1678,10 +1639,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.481142561044861</v>
+        <v>3.428635542028494</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7541176005764498</v>
+        <v>0.1362808157997737</v>
       </c>
     </row>
     <row r="22">
@@ -1691,23 +1652,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.214977387602054</v>
+        <v>-2.392482913341861</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7857728897372366</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.5509328903235658</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.9056999435722206</v>
+        <v>0.06019398297840711</v>
       </c>
     </row>
   </sheetData>
@@ -1721,7 +1669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,10 +1701,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-15.23841738766735</v>
+        <v>-16.54888307222525</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9973545705104938</v>
+        <v>0.9971261211505775</v>
       </c>
     </row>
     <row r="3">
@@ -1766,10 +1714,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.44951073211951</v>
+        <v>18.00526800310028</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9967971183432249</v>
+        <v>0.9968732063264023</v>
       </c>
     </row>
     <row r="4">
@@ -1779,10 +1727,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.29968676551633</v>
+        <v>19.16655012446608</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9966495265030932</v>
+        <v>0.9966715393078683</v>
       </c>
     </row>
     <row r="5">
@@ -1792,10 +1740,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.11523212929111</v>
+        <v>15.74665718909054</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9972023532248148</v>
+        <v>0.9972654348900476</v>
       </c>
     </row>
     <row r="6">
@@ -1805,10 +1753,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.56050768469908</v>
+        <v>16.21248293581952</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9971250525440014</v>
+        <v>0.9971845399031245</v>
       </c>
     </row>
     <row r="7">
@@ -1818,10 +1766,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.33862057633862</v>
+        <v>17.82647865146818</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9968163690712626</v>
+        <v>0.9969042547340643</v>
       </c>
     </row>
     <row r="8">
@@ -1831,10 +1779,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.5968894781492099</v>
+        <v>-0.7756826307522223</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004759126313869502</v>
+        <v>0.0003126505043813695</v>
       </c>
     </row>
     <row r="9">
@@ -1844,10 +1792,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003160398028654458</v>
+        <v>0.000644501597415327</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001155960896411034</v>
+        <v>1.403657213970588e-07</v>
       </c>
     </row>
     <row r="10">
@@ -1857,10 +1805,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01902526834178749</v>
+        <v>-0.01354971521512042</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01802230097916316</v>
+        <v>0.1142516644195251</v>
       </c>
     </row>
     <row r="11">
@@ -1870,10 +1818,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1475052376685558</v>
+        <v>-0.08555175750509735</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4235519704736941</v>
+        <v>0.6546735808368559</v>
       </c>
     </row>
     <row r="12">
@@ -1883,10 +1831,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9856244980339749</v>
+        <v>0.8288172301125892</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00143564753830049</v>
+        <v>0.01036433827163722</v>
       </c>
     </row>
     <row r="13">
@@ -1896,10 +1844,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.934280394887481</v>
+        <v>0.4404719554373827</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01868541171186711</v>
+        <v>0.2938652150540274</v>
       </c>
     </row>
     <row r="14">
@@ -1909,10 +1857,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0002869784376477235</v>
+        <v>-0.0003298678736017768</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1654638791852394</v>
+        <v>0.05337548306562238</v>
       </c>
     </row>
     <row r="15">
@@ -1922,10 +1870,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.494421250974823e-10</v>
+        <v>7.312383186416714e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9970699240266255</v>
+        <v>0.5047500776189917</v>
       </c>
     </row>
     <row r="16">
@@ -1935,10 +1883,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2480477520844884</v>
+        <v>-0.3491903409963135</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3331099615293132</v>
+        <v>0.1079081218924939</v>
       </c>
     </row>
     <row r="17">
@@ -1948,10 +1896,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1097190359328545</v>
+        <v>0.02133795584198123</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7789135025276854</v>
+        <v>0.9115745688637619</v>
       </c>
     </row>
     <row r="18">
@@ -1961,10 +1909,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.614576990144448</v>
+        <v>1.116713459660501</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7238944035732953</v>
+        <v>0.8457861001313103</v>
       </c>
     </row>
     <row r="19">
@@ -1974,23 +1922,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.03379600616712061</v>
+        <v>0.04504966230494584</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3405272669248472</v>
+        <v>0.1630346144579298</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.005951627674896283</v>
+        <v>0.005556307788751786</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6852699541401448</v>
+        <v>0.5885614245050305</v>
       </c>
     </row>
     <row r="21">
@@ -2000,10 +1948,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.856701576715877</v>
+        <v>2.326862548227056</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3794958152534176</v>
+        <v>0.3126366566611281</v>
       </c>
     </row>
     <row r="22">
@@ -2013,23 +1961,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.254022719634912</v>
+        <v>-2.445509941830495</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7751728626308549</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-3.500572639952563</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.4447810050148625</v>
+        <v>0.04960666393553602</v>
       </c>
     </row>
   </sheetData>
@@ -2043,7 +1978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2075,10 +2010,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-14.14208010003364</v>
+        <v>-15.85907034932547</v>
       </c>
       <c r="C2" t="n">
-        <v>0.997543288796821</v>
+        <v>0.9972440378903812</v>
       </c>
     </row>
     <row r="3">
@@ -2088,10 +2023,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.09306827669193</v>
+        <v>17.72298803930529</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9968569398411148</v>
+        <v>0.9969201307073456</v>
       </c>
     </row>
     <row r="4">
@@ -2101,10 +2036,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.08455710454611</v>
+        <v>18.72502254005021</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9966847030966314</v>
+        <v>0.9967459999004232</v>
       </c>
     </row>
     <row r="5">
@@ -2114,10 +2049,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.04074839213003</v>
+        <v>15.57044143575899</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9972134596365573</v>
+        <v>0.9972941948912804</v>
       </c>
     </row>
     <row r="6">
@@ -2127,10 +2062,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.56007467859212</v>
+        <v>15.97905458776394</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9971232445508281</v>
+        <v>0.997223187067984</v>
       </c>
     </row>
     <row r="7">
@@ -2140,10 +2075,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.17528420304119</v>
+        <v>17.59082742537868</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9968426576924835</v>
+        <v>0.9969430972488379</v>
       </c>
     </row>
     <row r="8">
@@ -2153,10 +2088,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.4375288355247033</v>
+        <v>-0.7340915807927353</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03963942218182009</v>
+        <v>0.0009720448837629562</v>
       </c>
     </row>
     <row r="9">
@@ -2166,10 +2101,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004202635609304073</v>
+        <v>0.0007771517410290941</v>
       </c>
       <c r="C9" t="n">
-        <v>6.317599816316764e-05</v>
+        <v>1.525986644703745e-09</v>
       </c>
     </row>
     <row r="10">
@@ -2179,10 +2114,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.02219871970787233</v>
+        <v>-0.02018077620305693</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005335538347488063</v>
+        <v>0.01796049385245578</v>
       </c>
     </row>
     <row r="11">
@@ -2192,10 +2127,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.109707356426302</v>
+        <v>-0.1243366610077186</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5531344949373997</v>
+        <v>0.5176731291828383</v>
       </c>
     </row>
     <row r="12">
@@ -2205,10 +2140,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9800283174839328</v>
+        <v>0.8311034086361748</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001600757131137975</v>
+        <v>0.01160554016049376</v>
       </c>
     </row>
     <row r="13">
@@ -2218,10 +2153,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.121269294773751</v>
+        <v>0.7189094429545602</v>
       </c>
       <c r="C13" t="n">
-        <v>0.004277326404708791</v>
+        <v>0.08421834898419546</v>
       </c>
     </row>
     <row r="14">
@@ -2231,10 +2166,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0003490855459232983</v>
+        <v>-0.0003303254861173008</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0852162734672947</v>
+        <v>0.04869774371349986</v>
       </c>
     </row>
     <row r="15">
@@ -2244,10 +2179,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-6.947527084937284e-08</v>
+        <v>8.100257402219976e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6594167298783371</v>
+        <v>0.4663771914264431</v>
       </c>
     </row>
     <row r="16">
@@ -2257,10 +2192,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.3742249157815378</v>
+        <v>-0.294073150250409</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1756763699219961</v>
+        <v>0.1607712721810061</v>
       </c>
     </row>
     <row r="17">
@@ -2270,10 +2205,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1821811226897376</v>
+        <v>0.1005011674475887</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6495434636822974</v>
+        <v>0.603395651967835</v>
       </c>
     </row>
     <row r="18">
@@ -2283,10 +2218,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4.187905577590018</v>
+        <v>2.794634365673061</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5936536476913904</v>
+        <v>0.6352025499147067</v>
       </c>
     </row>
     <row r="19">
@@ -2296,23 +2231,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01396683146095513</v>
+        <v>0.02924097544802633</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7004764552574416</v>
+        <v>0.3680901986597862</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.008542263358080244</v>
+        <v>-0.0002995082143038678</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5677085727549892</v>
+        <v>0.9761686611270464</v>
       </c>
     </row>
     <row r="21">
@@ -2322,10 +2257,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.945073683841726</v>
+        <v>3.293456418310662</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3119324910944342</v>
+        <v>0.1394080473548306</v>
       </c>
     </row>
     <row r="22">
@@ -2335,23 +2270,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.552258041053323</v>
+        <v>-2.215354506223311</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7224921814256567</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-3.882209783662996</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.4052062888793474</v>
+        <v>0.07611911597036637</v>
       </c>
     </row>
   </sheetData>
@@ -2365,7 +2287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2397,10 +2319,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-17.58588759110744</v>
+        <v>-16.6709137961906</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9969492888798097</v>
+        <v>0.9971055545069659</v>
       </c>
     </row>
     <row r="3">
@@ -2410,10 +2332,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.41800440936983</v>
+        <v>18.07628830527847</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9968049375923728</v>
+        <v>0.9968615508067026</v>
       </c>
     </row>
     <row r="4">
@@ -2423,10 +2345,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.23140299762627</v>
+        <v>19.2917368409723</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9966638341336855</v>
+        <v>0.9966505229004338</v>
       </c>
     </row>
     <row r="5">
@@ -2436,10 +2358,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.08090496587117</v>
+        <v>15.84222156847546</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9972103640328194</v>
+        <v>0.9972494332709767</v>
       </c>
     </row>
     <row r="6">
@@ -2449,10 +2371,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.49880516343119</v>
+        <v>16.30007215909262</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9971378690769932</v>
+        <v>0.9971699404175871</v>
       </c>
     </row>
     <row r="7">
@@ -2462,10 +2384,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.21442276488261</v>
+        <v>18.01780288455003</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9968402537392812</v>
+        <v>0.996871705152961</v>
       </c>
     </row>
     <row r="8">
@@ -2475,10 +2397,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.6036563099175701</v>
+        <v>-0.8321100220191696</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001798590293084692</v>
+        <v>0.0002054564006513407</v>
       </c>
     </row>
     <row r="9">
@@ -2488,10 +2410,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003400952498123117</v>
+        <v>0.0008540419372609972</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0007212620558648027</v>
+        <v>2.74458673822211e-10</v>
       </c>
     </row>
     <row r="10">
@@ -2501,10 +2423,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01729745849372905</v>
+        <v>-0.01387389920493256</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03052560771470325</v>
+        <v>0.1064909880285315</v>
       </c>
     </row>
     <row r="11">
@@ -2514,10 +2436,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.235958744922774</v>
+        <v>-0.1391065228420098</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2056285686073331</v>
+        <v>0.4807703234968851</v>
       </c>
     </row>
     <row r="12">
@@ -2527,10 +2449,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.032519282567061</v>
+        <v>0.5913604489421957</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0008064232348138526</v>
+        <v>0.07697662435028198</v>
       </c>
     </row>
     <row r="13">
@@ -2540,10 +2462,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.011190734960453</v>
+        <v>0.3858165396783885</v>
       </c>
       <c r="C13" t="n">
-        <v>0.009511969981895791</v>
+        <v>0.3556388581059959</v>
       </c>
     </row>
     <row r="14">
@@ -2553,10 +2475,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0003582882879062629</v>
+        <v>-0.0003318024878846778</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08864251268984924</v>
+        <v>0.04645083150639954</v>
       </c>
     </row>
     <row r="15">
@@ -2566,10 +2488,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.32125186307272e-08</v>
+        <v>1.237653641914179e-07</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6316621168942582</v>
+        <v>0.2676029916175119</v>
       </c>
     </row>
     <row r="16">
@@ -2579,10 +2501,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2105070299865066</v>
+        <v>-0.1813478757567087</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4288687457931395</v>
+        <v>0.4028918882486354</v>
       </c>
     </row>
     <row r="17">
@@ -2592,10 +2514,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01217569607135187</v>
+        <v>0.09487349188461972</v>
       </c>
       <c r="C17" t="n">
-        <v>0.976199014599839</v>
+        <v>0.6317101975360491</v>
       </c>
     </row>
     <row r="18">
@@ -2605,10 +2527,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.3175546293943738</v>
+        <v>0.7033001685873944</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9662102437846956</v>
+        <v>0.9089790456595812</v>
       </c>
     </row>
     <row r="19">
@@ -2618,23 +2540,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.06329693092958721</v>
+        <v>0.05364460056395085</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0771492987631576</v>
+        <v>0.10104249328425</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.009121470058173485</v>
+        <v>-0.002003064249371834</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5612590088477077</v>
+        <v>0.8469378505436991</v>
       </c>
     </row>
     <row r="21">
@@ -2644,10 +2566,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.860287412473141</v>
+        <v>1.542755724134085</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5565714838684497</v>
+        <v>0.4948171777163709</v>
       </c>
     </row>
     <row r="22">
@@ -2657,23 +2579,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.02229682479006</v>
+        <v>-2.236623410968306</v>
       </c>
       <c r="C22" t="n">
-        <v>0.827216130850955</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-2.247997474408195</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.6439163768913699</v>
+        <v>0.08076499001972567</v>
       </c>
     </row>
   </sheetData>
@@ -2687,7 +2596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2719,10 +2628,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-17.58296816377954</v>
+        <v>-16.41011649220664</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9969497318726802</v>
+        <v>0.9971506899483833</v>
       </c>
     </row>
     <row r="3">
@@ -2732,10 +2641,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.43637994643299</v>
+        <v>18.06147640900497</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9968016834113999</v>
+        <v>0.9968639632501535</v>
       </c>
     </row>
     <row r="4">
@@ -2745,10 +2654,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.20110773326211</v>
+        <v>19.2628380557254</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9966690203116257</v>
+        <v>0.9966553705397776</v>
       </c>
     </row>
     <row r="5">
@@ -2758,10 +2667,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.37389051601846</v>
+        <v>15.71253240278102</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9971594794972052</v>
+        <v>0.9972718116313229</v>
       </c>
     </row>
     <row r="6">
@@ -2771,10 +2680,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.80480809386572</v>
+        <v>16.22747743491494</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9970847248231871</v>
+        <v>0.9971824013901154</v>
       </c>
     </row>
     <row r="7">
@@ -2784,10 +2693,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.15905754382795</v>
+        <v>18.22797941037011</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9968497926670734</v>
+        <v>0.9968350533035332</v>
       </c>
     </row>
     <row r="8">
@@ -2797,10 +2706,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.443062857663666</v>
+        <v>-0.6922527665287467</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03456208839695292</v>
+        <v>0.003726175365121179</v>
       </c>
     </row>
     <row r="9">
@@ -2810,10 +2719,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003264584695579784</v>
+        <v>0.0006251556387352459</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0009207445334723695</v>
+        <v>1.704972654850244e-06</v>
       </c>
     </row>
     <row r="10">
@@ -2823,10 +2732,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.02028465050151514</v>
+        <v>-0.01187511899653945</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01065957223884458</v>
+        <v>0.1740927451117146</v>
       </c>
     </row>
     <row r="11">
@@ -2836,10 +2745,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1996011928032508</v>
+        <v>-0.1120368095585558</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2775254385765263</v>
+        <v>0.5777430910336796</v>
       </c>
     </row>
     <row r="12">
@@ -2849,10 +2758,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9458985169646225</v>
+        <v>0.9327946751675851</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002570793695654447</v>
+        <v>0.006430383227223491</v>
       </c>
     </row>
     <row r="13">
@@ -2862,10 +2771,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.06474099537618</v>
+        <v>0.4528674641895208</v>
       </c>
       <c r="C13" t="n">
-        <v>0.006036873884041694</v>
+        <v>0.2921322270018147</v>
       </c>
     </row>
     <row r="14">
@@ -2875,10 +2784,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0003134304064567499</v>
+        <v>-0.0002962814008837912</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1272163741520661</v>
+        <v>0.0924699950944628</v>
       </c>
     </row>
     <row r="15">
@@ -2888,10 +2797,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.910027144596754e-08</v>
+        <v>1.360250581300259e-07</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5886560741441116</v>
+        <v>0.2436894265292672</v>
       </c>
     </row>
     <row r="16">
@@ -2901,10 +2810,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1066879541245566</v>
+        <v>-0.4162423146700933</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6687730254546163</v>
+        <v>0.06826683261658163</v>
       </c>
     </row>
     <row r="17">
@@ -2914,10 +2823,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.06694613109356823</v>
+        <v>0.2353011150871818</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8619119621810907</v>
+        <v>0.2465291774804248</v>
       </c>
     </row>
     <row r="18">
@@ -2927,10 +2836,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.85331528674608</v>
+        <v>4.816168797495781</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8018997073251838</v>
+        <v>0.45073119285946</v>
       </c>
     </row>
     <row r="19">
@@ -2940,23 +2849,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.04538846909814803</v>
+        <v>0.05941556021097708</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1968560632228703</v>
+        <v>0.0755023632517287</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.003348777112423134</v>
+        <v>-0.008808624184524395</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8174721214553478</v>
+        <v>0.4142182258572171</v>
       </c>
     </row>
     <row r="21">
@@ -2966,10 +2875,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.366764412747428</v>
+        <v>2.056494737824484</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8590359141621099</v>
+        <v>0.3787050726097836</v>
       </c>
     </row>
     <row r="22">
@@ -2979,23 +2888,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.52960452930282</v>
+        <v>-2.373298115711687</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7224648684868349</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.3339323371790238</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.9405066697114386</v>
+        <v>0.08199197964126889</v>
       </c>
     </row>
   </sheetData>
